--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
   <si>
     <t>備註</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t>陳鈺杰</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>李志文</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -893,7 +889,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -938,13 +934,13 @@
         <v>19</v>
       </c>
       <c r="H1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>65</v>
-      </c>
       <c r="J1" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>43</v>
@@ -1849,7 +1845,7 @@
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1892,13 +1888,13 @@
         <v>19</v>
       </c>
       <c r="H1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>63</v>
-      </c>
       <c r="J1" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>43</v>
@@ -2046,7 +2042,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="23">
         <v>41568</v>
@@ -2077,7 +2073,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="23">
         <v>41570</v>
@@ -2108,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="23">
         <v>41571</v>
@@ -2166,7 +2162,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="23">
         <v>41578</v>
@@ -2195,7 +2191,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="23">
         <v>41575</v>
@@ -2224,7 +2220,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="23">
         <v>41578</v>
@@ -2435,7 +2431,7 @@
         <v>53</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H19" s="23">
         <v>41579</v>

--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
   <si>
     <t>備註</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>預計完成日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0501</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -889,10 +901,10 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -911,7 +923,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -955,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -985,7 +997,7 @@
         <v>41530</v>
       </c>
       <c r="K2" s="23">
-        <v>41558</v>
+        <v>41564</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>46</v>
@@ -995,7 +1007,7 @@
       </c>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>41529</v>
       </c>
       <c r="K3" s="23">
-        <v>41558</v>
+        <v>41564</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>46</v>
@@ -1033,7 +1045,7 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1061,7 +1073,7 @@
         <v>41529</v>
       </c>
       <c r="K4" s="23">
-        <v>41558</v>
+        <v>41564</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>46</v>
@@ -1071,7 +1083,7 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1101,15 +1113,17 @@
         <v>41538</v>
       </c>
       <c r="K5" s="23">
-        <v>41547</v>
-      </c>
-      <c r="L5" s="23"/>
+        <v>41563</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="M5" s="28">
         <v>0</v>
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1137,15 +1151,17 @@
         <v>41533</v>
       </c>
       <c r="K6" s="23">
-        <v>41547</v>
-      </c>
-      <c r="L6" s="23"/>
+        <v>41563</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="M6" s="28">
         <v>0</v>
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1175,15 +1191,17 @@
         <v>41542</v>
       </c>
       <c r="K7" s="23">
-        <v>41547</v>
-      </c>
-      <c r="L7" s="23"/>
+        <v>41564</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="M7" s="28">
         <v>0</v>
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -1216,12 +1234,10 @@
         <v>41547</v>
       </c>
       <c r="L8" s="23"/>
-      <c r="M8" s="28">
-        <v>0</v>
-      </c>
+      <c r="M8" s="28"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -1249,7 +1265,7 @@
         <v>41548</v>
       </c>
       <c r="K9" s="23">
-        <v>41558</v>
+        <v>41563</v>
       </c>
       <c r="L9" s="24" t="s">
         <v>46</v>
@@ -1257,7 +1273,7 @@
       <c r="M9" s="29"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -1285,7 +1301,7 @@
         <v>41550</v>
       </c>
       <c r="K10" s="23">
-        <v>41558</v>
+        <v>41563</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>46</v>
@@ -1293,7 +1309,7 @@
       <c r="M10" s="28"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -1323,7 +1339,7 @@
       <c r="M11" s="28"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -1353,7 +1369,7 @@
       <c r="M12" s="28"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="27">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -1368,7 +1384,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>54</v>
@@ -1379,13 +1395,17 @@
       <c r="I13" s="23">
         <v>41563</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="23">
+        <v>41565</v>
+      </c>
       <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="L13" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="M13" s="28"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="27">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -1417,7 +1437,7 @@
       <c r="M14" s="28"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="27">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -1449,7 +1469,7 @@
       <c r="M15" s="28"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="27">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -1481,7 +1501,7 @@
       <c r="M16" s="28"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -1505,13 +1525,17 @@
       <c r="I17" s="23">
         <v>41558</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="23">
+        <v>41563</v>
+      </c>
       <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="L17" s="23" t="s">
+        <v>65</v>
+      </c>
       <c r="M17" s="28"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -1541,7 +1565,7 @@
       <c r="M18" s="28"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -1571,7 +1595,7 @@
       <c r="M19" s="28"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1587,7 +1611,7 @@
       <c r="M20" s="28"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1603,7 +1627,7 @@
       <c r="M21" s="28"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1619,7 +1643,7 @@
       <c r="M22" s="30"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1635,7 +1659,7 @@
       <c r="M23" s="28"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1651,175 +1675,175 @@
       <c r="M24" s="28"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5">
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="8"/>
@@ -1848,7 +1872,7 @@
       <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -1865,7 +1889,7 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1906,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1937,7 +1961,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1966,7 +1990,7 @@
       <c r="L3" s="28"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1995,7 +2019,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2026,7 +2050,7 @@
       <c r="L5" s="28"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2055,7 +2079,7 @@
       <c r="L6" s="28"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -2086,7 +2110,7 @@
       <c r="L7" s="28"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -2117,7 +2141,7 @@
       <c r="L8" s="28"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2146,7 +2170,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -2175,7 +2199,7 @@
       <c r="L10" s="28"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -2204,7 +2228,7 @@
       <c r="L11" s="28"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -2233,7 +2257,7 @@
       <c r="L12" s="28"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="27">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -2264,7 +2288,7 @@
       <c r="L13" s="28"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="27">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -2295,7 +2319,7 @@
       <c r="L14" s="28"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="27">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -2326,7 +2350,7 @@
       <c r="L15" s="28"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="27">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -2357,7 +2381,7 @@
       <c r="L16" s="28"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -2386,7 +2410,7 @@
       <c r="L17" s="28"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -2415,7 +2439,7 @@
       <c r="L18" s="28"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -2444,7 +2468,7 @@
       <c r="L19" s="28"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -2459,7 +2483,7 @@
       <c r="L20" s="28"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -2474,7 +2498,7 @@
       <c r="L21" s="28"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -2489,7 +2513,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2504,7 +2528,7 @@
       <c r="L23" s="28"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2519,175 +2543,175 @@
       <c r="L24" s="28"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5">
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="8"/>

--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -901,7 +901,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1270,7 +1270,9 @@
       <c r="L9" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="29"/>
+      <c r="M9" s="29">
+        <v>0</v>
+      </c>
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
@@ -1306,7 +1308,9 @@
       <c r="L10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="28"/>
+      <c r="M10" s="28">
+        <v>0</v>
+      </c>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14">
@@ -1402,7 +1406,9 @@
       <c r="L13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="28"/>
+      <c r="M13" s="28">
+        <v>0</v>
+      </c>
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" ht="27">
@@ -1528,11 +1534,15 @@
       <c r="J17" s="23">
         <v>41563</v>
       </c>
-      <c r="K17" s="23"/>
+      <c r="K17" s="23">
+        <v>41564</v>
+      </c>
       <c r="L17" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="28"/>
+      <c r="M17" s="28">
+        <v>0</v>
+      </c>
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14">

--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="68">
   <si>
     <t>備註</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -901,7 +901,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1231,10 +1231,14 @@
         <v>41547</v>
       </c>
       <c r="K8" s="23">
-        <v>41547</v>
-      </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="28"/>
+        <v>41567</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="28">
+        <v>0</v>
+      </c>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14">

--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
   <si>
     <t>備註</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -300,6 +300,10 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0402</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -901,7 +905,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1360,7 +1364,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>54</v>
@@ -1406,7 +1410,9 @@
       <c r="J13" s="23">
         <v>41565</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="23">
+        <v>41568</v>
+      </c>
       <c r="L13" s="23" t="s">
         <v>46</v>
       </c>
@@ -1441,10 +1447,16 @@
       <c r="I14" s="23">
         <v>41565</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="23">
+        <v>41568</v>
+      </c>
       <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="28"/>
+      <c r="L14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="28">
+        <v>0</v>
+      </c>
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="27">

--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="70">
   <si>
     <t>備註</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -304,6 +304,10 @@
   </si>
   <si>
     <t>APF0402</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -905,10 +909,10 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -927,7 +931,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -971,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1011,7 +1015,7 @@
       </c>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1049,7 +1053,7 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1087,7 +1091,7 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1127,7 +1131,7 @@
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1165,7 +1169,7 @@
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1205,7 +1209,7 @@
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -1245,7 +1249,7 @@
       </c>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -1283,7 +1287,7 @@
       </c>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -1321,7 +1325,7 @@
       </c>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -1351,7 +1355,7 @@
       <c r="M11" s="28"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -1375,13 +1379,19 @@
       <c r="I12" s="23">
         <v>41568</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="23">
+        <v>41569</v>
+      </c>
       <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="28"/>
+      <c r="L12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="28">
+        <v>0</v>
+      </c>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="27">
+    <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -1421,7 +1431,7 @@
       </c>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="27">
+    <row r="14" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -1459,7 +1469,7 @@
       </c>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="27">
+    <row r="15" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -1491,7 +1501,7 @@
       <c r="M15" s="28"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="27">
+    <row r="16" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -1523,7 +1533,7 @@
       <c r="M16" s="28"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -1561,7 +1571,7 @@
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -1591,7 +1601,7 @@
       <c r="M18" s="28"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -1621,7 +1631,7 @@
       <c r="M19" s="28"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1637,7 +1647,7 @@
       <c r="M20" s="28"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1653,7 +1663,7 @@
       <c r="M21" s="28"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1669,7 +1679,7 @@
       <c r="M22" s="30"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1685,7 +1695,7 @@
       <c r="M23" s="28"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1701,175 +1711,175 @@
       <c r="M24" s="28"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="3:5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="3:5">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="3:5">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="3:5">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="3:5">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="3:5">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="3:5">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="3:5">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="3:5">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="3:5">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="3:5">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="3:5">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="3:5">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="3:5">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="3:5">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="3:5">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="3:5">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="8"/>
@@ -1898,7 +1908,7 @@
       <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -1915,7 +1925,7 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1956,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1987,7 +1997,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2016,7 +2026,7 @@
       <c r="L3" s="28"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2045,7 +2055,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2076,7 +2086,7 @@
       <c r="L5" s="28"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2105,7 +2115,7 @@
       <c r="L6" s="28"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -2136,7 +2146,7 @@
       <c r="L7" s="28"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -2167,7 +2177,7 @@
       <c r="L8" s="28"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2196,7 +2206,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -2225,7 +2235,7 @@
       <c r="L10" s="28"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -2254,7 +2264,7 @@
       <c r="L11" s="28"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -2283,7 +2293,7 @@
       <c r="L12" s="28"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="27">
+    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -2314,7 +2324,7 @@
       <c r="L13" s="28"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="27">
+    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -2345,7 +2355,7 @@
       <c r="L14" s="28"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="27">
+    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -2376,7 +2386,7 @@
       <c r="L15" s="28"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="27">
+    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -2407,7 +2417,7 @@
       <c r="L16" s="28"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -2436,7 +2446,7 @@
       <c r="L17" s="28"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -2465,7 +2475,7 @@
       <c r="L18" s="28"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -2494,7 +2504,7 @@
       <c r="L19" s="28"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -2509,7 +2519,7 @@
       <c r="L20" s="28"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -2524,7 +2534,7 @@
       <c r="L21" s="28"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -2539,7 +2549,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2554,7 +2564,7 @@
       <c r="L23" s="28"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2569,175 +2579,175 @@
       <c r="L24" s="28"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="3:5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="3:5">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="3:5">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="3:5">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="3:5">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="3:5">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="3:5">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="3:5">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="3:5">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="3:5">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="3:5">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="3:5">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="3:5">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="3:5">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="3:5">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="3:5">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="3:5">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="8"/>

--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="71">
   <si>
     <t>備註</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -308,6 +308,10 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能清單資料轉入</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -909,7 +913,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1336,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="32"/>
       <c r="D11" s="12" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>33</v>

--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -913,7 +913,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1009,7 @@
         <v>41530</v>
       </c>
       <c r="K2" s="23">
-        <v>41564</v>
+        <v>41570</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>46</v>
@@ -1047,7 +1047,7 @@
         <v>41529</v>
       </c>
       <c r="K3" s="23">
-        <v>41564</v>
+        <v>41570</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>46</v>
@@ -1085,7 +1085,7 @@
         <v>41529</v>
       </c>
       <c r="K4" s="23">
-        <v>41564</v>
+        <v>41570</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>46</v>
@@ -1125,7 +1125,7 @@
         <v>41538</v>
       </c>
       <c r="K5" s="23">
-        <v>41563</v>
+        <v>41570</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>67</v>
@@ -1163,7 +1163,7 @@
         <v>41533</v>
       </c>
       <c r="K6" s="23">
-        <v>41563</v>
+        <v>41570</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>67</v>
@@ -1203,7 +1203,7 @@
         <v>41542</v>
       </c>
       <c r="K7" s="23">
-        <v>41564</v>
+        <v>41570</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>67</v>
@@ -1243,7 +1243,7 @@
         <v>41547</v>
       </c>
       <c r="K8" s="23">
-        <v>41567</v>
+        <v>41570</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>46</v>
@@ -1281,7 +1281,7 @@
         <v>41548</v>
       </c>
       <c r="K9" s="23">
-        <v>41563</v>
+        <v>41570</v>
       </c>
       <c r="L9" s="24" t="s">
         <v>46</v>
@@ -1319,7 +1319,7 @@
         <v>41550</v>
       </c>
       <c r="K10" s="23">
-        <v>41563</v>
+        <v>41570</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>46</v>
@@ -1425,7 +1425,7 @@
         <v>41565</v>
       </c>
       <c r="K13" s="23">
-        <v>41568</v>
+        <v>41570</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>46</v>
@@ -1565,7 +1565,7 @@
         <v>41563</v>
       </c>
       <c r="K17" s="23">
-        <v>41564</v>
+        <v>41570</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>65</v>

--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="72">
   <si>
     <t>備註</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -312,6 +312,10 @@
   </si>
   <si>
     <t>功能清單資料轉入</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -913,10 +917,10 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -935,7 +939,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -979,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>41530</v>
       </c>
       <c r="K2" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>46</v>
@@ -1019,7 +1023,7 @@
       </c>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>41529</v>
       </c>
       <c r="K3" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>46</v>
@@ -1057,7 +1061,7 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>41529</v>
       </c>
       <c r="K4" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>46</v>
@@ -1095,7 +1099,7 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>41538</v>
       </c>
       <c r="K5" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>67</v>
@@ -1135,7 +1139,7 @@
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>41533</v>
       </c>
       <c r="K6" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>67</v>
@@ -1173,7 +1177,7 @@
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>41542</v>
       </c>
       <c r="K7" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>67</v>
@@ -1213,7 +1217,7 @@
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>41547</v>
       </c>
       <c r="K8" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>46</v>
@@ -1253,7 +1257,7 @@
       </c>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>41548</v>
       </c>
       <c r="K9" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="L9" s="24" t="s">
         <v>46</v>
@@ -1291,7 +1295,7 @@
       </c>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>41550</v>
       </c>
       <c r="K10" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>46</v>
@@ -1329,7 +1333,7 @@
       </c>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -1353,13 +1357,19 @@
       <c r="I11" s="23">
         <v>41570</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="J11" s="23">
+        <v>41571</v>
+      </c>
+      <c r="K11" s="23">
+        <v>41575</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="M11" s="28"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -1386,7 +1396,9 @@
       <c r="J12" s="23">
         <v>41569</v>
       </c>
-      <c r="K12" s="23"/>
+      <c r="K12" s="23">
+        <v>41575</v>
+      </c>
       <c r="L12" s="23" t="s">
         <v>69</v>
       </c>
@@ -1395,7 +1407,7 @@
       </c>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="27">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -1425,7 +1437,7 @@
         <v>41565</v>
       </c>
       <c r="K13" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>46</v>
@@ -1435,7 +1447,7 @@
       </c>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="27">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -1464,7 +1476,9 @@
       <c r="J14" s="23">
         <v>41568</v>
       </c>
-      <c r="K14" s="23"/>
+      <c r="K14" s="23">
+        <v>41575</v>
+      </c>
       <c r="L14" s="23" t="s">
         <v>67</v>
       </c>
@@ -1473,7 +1487,7 @@
       </c>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="27">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -1499,13 +1513,19 @@
       <c r="I15" s="23">
         <v>41570</v>
       </c>
-      <c r="J15" s="23"/>
+      <c r="J15" s="23">
+        <v>41575</v>
+      </c>
       <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="28"/>
+      <c r="L15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="28">
+        <v>0</v>
+      </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="27">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -1531,13 +1551,19 @@
       <c r="I16" s="23">
         <v>41571</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="23">
+        <v>41575</v>
+      </c>
       <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="28"/>
+      <c r="L16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="28">
+        <v>0</v>
+      </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -1565,7 +1591,7 @@
         <v>41563</v>
       </c>
       <c r="K17" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>65</v>
@@ -1575,7 +1601,7 @@
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -1599,13 +1625,19 @@
       <c r="I18" s="23">
         <v>41572</v>
       </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="23">
+        <v>41575</v>
+      </c>
       <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="28"/>
+      <c r="L18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="28">
+        <v>0</v>
+      </c>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -1629,13 +1661,19 @@
       <c r="I19" s="23">
         <v>41571</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="23">
+        <v>41575</v>
+      </c>
       <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="28"/>
+      <c r="L19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="28">
+        <v>0</v>
+      </c>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1651,7 +1689,7 @@
       <c r="M20" s="28"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1667,7 +1705,7 @@
       <c r="M21" s="28"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1683,7 +1721,7 @@
       <c r="M22" s="30"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1699,7 +1737,7 @@
       <c r="M23" s="28"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1715,175 +1753,175 @@
       <c r="M24" s="28"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5">
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="8"/>
@@ -1912,7 +1950,7 @@
       <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -1929,7 +1967,7 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1970,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2001,7 +2039,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2030,7 +2068,7 @@
       <c r="L3" s="28"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2059,7 +2097,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2090,7 +2128,7 @@
       <c r="L5" s="28"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2119,7 +2157,7 @@
       <c r="L6" s="28"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -2150,7 +2188,7 @@
       <c r="L7" s="28"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -2181,7 +2219,7 @@
       <c r="L8" s="28"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2210,7 +2248,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -2239,7 +2277,7 @@
       <c r="L10" s="28"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -2268,7 +2306,7 @@
       <c r="L11" s="28"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -2297,7 +2335,7 @@
       <c r="L12" s="28"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="27">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -2328,7 +2366,7 @@
       <c r="L13" s="28"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="27">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -2359,7 +2397,7 @@
       <c r="L14" s="28"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="27">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -2390,7 +2428,7 @@
       <c r="L15" s="28"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="27">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -2421,7 +2459,7 @@
       <c r="L16" s="28"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -2450,7 +2488,7 @@
       <c r="L17" s="28"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -2479,7 +2517,7 @@
       <c r="L18" s="28"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -2508,7 +2546,7 @@
       <c r="L19" s="28"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -2523,7 +2561,7 @@
       <c r="L20" s="28"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -2538,7 +2576,7 @@
       <c r="L21" s="28"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -2553,7 +2591,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2568,7 +2606,7 @@
       <c r="L23" s="28"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2583,175 +2621,175 @@
       <c r="L24" s="28"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5">
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="8"/>

--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -917,7 +917,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1051,7 +1051,7 @@
         <v>41529</v>
       </c>
       <c r="K3" s="23">
-        <v>41575</v>
+        <v>41577</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>46</v>
@@ -1089,7 +1089,7 @@
         <v>41529</v>
       </c>
       <c r="K4" s="23">
-        <v>41575</v>
+        <v>41577</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>46</v>
@@ -1129,7 +1129,7 @@
         <v>41538</v>
       </c>
       <c r="K5" s="23">
-        <v>41575</v>
+        <v>41577</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>67</v>
@@ -1167,7 +1167,7 @@
         <v>41533</v>
       </c>
       <c r="K6" s="23">
-        <v>41575</v>
+        <v>41577</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>67</v>
@@ -1207,7 +1207,7 @@
         <v>41542</v>
       </c>
       <c r="K7" s="23">
-        <v>41575</v>
+        <v>41577</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>67</v>
@@ -1247,7 +1247,7 @@
         <v>41547</v>
       </c>
       <c r="K8" s="23">
-        <v>41575</v>
+        <v>41577</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>46</v>
@@ -1285,7 +1285,7 @@
         <v>41548</v>
       </c>
       <c r="K9" s="23">
-        <v>41575</v>
+        <v>41577</v>
       </c>
       <c r="L9" s="24" t="s">
         <v>46</v>
@@ -1323,7 +1323,7 @@
         <v>41550</v>
       </c>
       <c r="K10" s="23">
-        <v>41575</v>
+        <v>41577</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>46</v>
@@ -1664,7 +1664,9 @@
       <c r="J19" s="23">
         <v>41575</v>
       </c>
-      <c r="K19" s="23"/>
+      <c r="K19" s="23">
+        <v>41577</v>
+      </c>
       <c r="L19" s="23" t="s">
         <v>65</v>
       </c>

--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
   <si>
     <t>備註</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -316,6 +316,14 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab逾時閃爍機制</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能點擊紀錄</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +925,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1013,7 +1021,7 @@
         <v>41530</v>
       </c>
       <c r="K2" s="23">
-        <v>41575</v>
+        <v>41578</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>46</v>
@@ -1051,7 +1059,7 @@
         <v>41529</v>
       </c>
       <c r="K3" s="23">
-        <v>41577</v>
+        <v>41582</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>46</v>
@@ -1089,7 +1097,7 @@
         <v>41529</v>
       </c>
       <c r="K4" s="23">
-        <v>41577</v>
+        <v>41582</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>46</v>
@@ -1129,7 +1137,7 @@
         <v>41538</v>
       </c>
       <c r="K5" s="23">
-        <v>41577</v>
+        <v>41584</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>67</v>
@@ -1167,7 +1175,7 @@
         <v>41533</v>
       </c>
       <c r="K6" s="23">
-        <v>41577</v>
+        <v>41578</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>67</v>
@@ -1207,7 +1215,7 @@
         <v>41542</v>
       </c>
       <c r="K7" s="23">
-        <v>41577</v>
+        <v>41578</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>67</v>
@@ -1247,7 +1255,7 @@
         <v>41547</v>
       </c>
       <c r="K8" s="23">
-        <v>41577</v>
+        <v>41578</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>46</v>
@@ -1285,7 +1293,7 @@
         <v>41548</v>
       </c>
       <c r="K9" s="23">
-        <v>41577</v>
+        <v>41578</v>
       </c>
       <c r="L9" s="24" t="s">
         <v>46</v>
@@ -1323,7 +1331,7 @@
         <v>41550</v>
       </c>
       <c r="K10" s="23">
-        <v>41577</v>
+        <v>41578</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>46</v>
@@ -1361,7 +1369,7 @@
         <v>41571</v>
       </c>
       <c r="K11" s="23">
-        <v>41575</v>
+        <v>41576</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>71</v>
@@ -1397,7 +1405,7 @@
         <v>41569</v>
       </c>
       <c r="K12" s="23">
-        <v>41575</v>
+        <v>41576</v>
       </c>
       <c r="L12" s="23" t="s">
         <v>69</v>
@@ -1437,7 +1445,7 @@
         <v>41565</v>
       </c>
       <c r="K13" s="23">
-        <v>41575</v>
+        <v>41576</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>46</v>
@@ -1477,7 +1485,7 @@
         <v>41568</v>
       </c>
       <c r="K14" s="23">
-        <v>41575</v>
+        <v>41576</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>67</v>
@@ -1487,7 +1495,7 @@
       </c>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="27">
+    <row r="15" spans="1:14">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -1496,7 +1504,7 @@
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="17" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>33</v>
@@ -1516,7 +1524,9 @@
       <c r="J15" s="23">
         <v>41575</v>
       </c>
-      <c r="K15" s="23"/>
+      <c r="K15" s="23">
+        <v>41578</v>
+      </c>
       <c r="L15" s="23" t="s">
         <v>65</v>
       </c>
@@ -1525,7 +1535,7 @@
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="27">
+    <row r="16" spans="1:14">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -1534,7 +1544,7 @@
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="17" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>33</v>
@@ -1554,7 +1564,9 @@
       <c r="J16" s="23">
         <v>41575</v>
       </c>
-      <c r="K16" s="23"/>
+      <c r="K16" s="23">
+        <v>41584</v>
+      </c>
       <c r="L16" s="23" t="s">
         <v>65</v>
       </c>
@@ -1591,7 +1603,7 @@
         <v>41563</v>
       </c>
       <c r="K17" s="23">
-        <v>41575</v>
+        <v>41576</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>65</v>
@@ -1628,7 +1640,9 @@
       <c r="J18" s="23">
         <v>41575</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="23">
+        <v>41584</v>
+      </c>
       <c r="L18" s="23" t="s">
         <v>65</v>
       </c>

--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="435" yWindow="405" windowWidth="11910" windowHeight="4185" tabRatio="857"/>
+    <workbookView xWindow="435" yWindow="405" windowWidth="11910" windowHeight="4185" tabRatio="857" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APF SA" sheetId="18" r:id="rId1"/>
@@ -922,7 +922,7 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
@@ -1097,7 +1097,7 @@
         <v>41529</v>
       </c>
       <c r="K4" s="23">
-        <v>41582</v>
+        <v>41592</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>46</v>
@@ -1137,7 +1137,7 @@
         <v>41538</v>
       </c>
       <c r="K5" s="23">
-        <v>41584</v>
+        <v>41592</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>67</v>
@@ -1215,7 +1215,7 @@
         <v>41542</v>
       </c>
       <c r="K7" s="23">
-        <v>41578</v>
+        <v>41592</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>67</v>
@@ -1255,7 +1255,7 @@
         <v>41547</v>
       </c>
       <c r="K8" s="23">
-        <v>41578</v>
+        <v>41592</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>46</v>
@@ -1369,7 +1369,7 @@
         <v>41571</v>
       </c>
       <c r="K11" s="23">
-        <v>41576</v>
+        <v>41589</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>71</v>
@@ -1445,7 +1445,7 @@
         <v>41565</v>
       </c>
       <c r="K13" s="23">
-        <v>41576</v>
+        <v>41592</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>46</v>
@@ -1485,7 +1485,7 @@
         <v>41568</v>
       </c>
       <c r="K14" s="23">
-        <v>41576</v>
+        <v>41593</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>67</v>
@@ -1679,7 +1679,7 @@
         <v>41575</v>
       </c>
       <c r="K19" s="23">
-        <v>41577</v>
+        <v>41593</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>65</v>
@@ -1960,10 +1960,10 @@
   </sheetPr>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2377,9 +2377,13 @@
       <c r="I13" s="23">
         <v>41576</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="23">
+        <v>41591</v>
+      </c>
       <c r="K13" s="23"/>
-      <c r="L13" s="28"/>
+      <c r="L13" s="28">
+        <v>0</v>
+      </c>
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="27">
@@ -2408,9 +2412,13 @@
       <c r="I14" s="23">
         <v>41578</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="23">
+        <v>41593</v>
+      </c>
       <c r="K14" s="23"/>
-      <c r="L14" s="28"/>
+      <c r="L14" s="28">
+        <v>0</v>
+      </c>
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="27">
@@ -2557,7 +2565,9 @@
       <c r="I19" s="23">
         <v>41579</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="23">
+        <v>41593</v>
+      </c>
       <c r="K19" s="23"/>
       <c r="L19" s="28"/>
       <c r="M19" s="9"/>

--- a/APF/RA006/RA006時程表預計.xlsx
+++ b/APF/RA006/RA006時程表預計.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="435" yWindow="405" windowWidth="11910" windowHeight="4185" tabRatio="857" activeTab="1"/>
+    <workbookView xWindow="435" yWindow="405" windowWidth="11910" windowHeight="4185" tabRatio="857"/>
   </bookViews>
   <sheets>
     <sheet name="APF SA" sheetId="18" r:id="rId1"/>
     <sheet name="APF SD" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'APF SA'!$C$1:$N$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'APF SD'!$C$1:$M$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'APF SA'!$C$1:$O$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'APF SD'!$C$1:$N$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'APF SA'!$C$1:$F$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'APF SD'!$C$1:$F$34</definedName>
   </definedNames>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="76">
   <si>
     <t>備註</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -324,6 +324,14 @@
   </si>
   <si>
     <t>功能點擊紀錄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際開始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際開始日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -920,15 +928,15 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -939,15 +947,1080 @@
     <col min="7" max="7" width="10.75" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="26" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="26" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="15" style="26" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="26" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="23">
+        <v>41529</v>
+      </c>
+      <c r="I2" s="23">
+        <v>41530</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23">
+        <v>41530</v>
+      </c>
+      <c r="L2" s="23">
+        <v>41598</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="28">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="23">
+        <v>41528</v>
+      </c>
+      <c r="I3" s="23">
+        <v>41529</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23">
+        <v>41529</v>
+      </c>
+      <c r="L3" s="23">
+        <v>41598</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="28">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="23">
+        <v>41528</v>
+      </c>
+      <c r="I4" s="23">
+        <v>41529</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23">
+        <v>41529</v>
+      </c>
+      <c r="L4" s="23">
+        <v>41598</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="28">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="23">
+        <v>41535</v>
+      </c>
+      <c r="I5" s="23">
+        <v>41538</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23">
+        <v>41538</v>
+      </c>
+      <c r="L5" s="23">
+        <v>41599</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="28">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="23">
+        <v>41531</v>
+      </c>
+      <c r="I6" s="23">
+        <v>41533</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23">
+        <v>41533</v>
+      </c>
+      <c r="L6" s="23">
+        <v>41598</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="28">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="23">
+        <v>41541</v>
+      </c>
+      <c r="I7" s="23">
+        <v>41542</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23">
+        <v>41542</v>
+      </c>
+      <c r="L7" s="23">
+        <v>41598</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="28">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="23">
+        <v>41544</v>
+      </c>
+      <c r="I8" s="23">
+        <v>41547</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23">
+        <v>41547</v>
+      </c>
+      <c r="L8" s="23">
+        <v>41599</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="28">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="23">
+        <v>41547</v>
+      </c>
+      <c r="I9" s="23">
+        <v>41548</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23">
+        <v>41548</v>
+      </c>
+      <c r="L9" s="23">
+        <v>41599</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="29">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="23">
+        <v>41549</v>
+      </c>
+      <c r="I10" s="23">
+        <v>41550</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23">
+        <v>41550</v>
+      </c>
+      <c r="L10" s="23">
+        <v>41599</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="28">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="23">
+        <v>41570</v>
+      </c>
+      <c r="I11" s="23">
+        <v>41570</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23">
+        <v>41571</v>
+      </c>
+      <c r="L11" s="23">
+        <v>41598</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="28"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="23">
+        <v>41568</v>
+      </c>
+      <c r="I12" s="23">
+        <v>41568</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23">
+        <v>41569</v>
+      </c>
+      <c r="L12" s="23">
+        <v>41598</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="28">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18">
+        <v>7</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="23">
+        <v>41561</v>
+      </c>
+      <c r="I13" s="23">
+        <v>41563</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23">
+        <v>41565</v>
+      </c>
+      <c r="L13" s="23">
+        <v>41592</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="28">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18">
+        <v>6</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="23">
+        <v>41564</v>
+      </c>
+      <c r="I14" s="23">
+        <v>41565</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23">
+        <v>41568</v>
+      </c>
+      <c r="L14" s="23">
+        <v>41597</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="28">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18">
+        <v>5</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="23">
+        <v>41570</v>
+      </c>
+      <c r="I15" s="23">
+        <v>41570</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23">
+        <v>41575</v>
+      </c>
+      <c r="L15" s="23">
+        <v>41598</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="28">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18">
+        <v>2</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="23">
+        <v>41571</v>
+      </c>
+      <c r="I16" s="23">
+        <v>41571</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23">
+        <v>41575</v>
+      </c>
+      <c r="L16" s="23">
+        <v>41598</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="28">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="23">
+        <v>41558</v>
+      </c>
+      <c r="I17" s="23">
+        <v>41558</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23">
+        <v>41563</v>
+      </c>
+      <c r="L17" s="23">
+        <v>41597</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="28">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="23">
+        <v>41572</v>
+      </c>
+      <c r="I18" s="23">
+        <v>41572</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23">
+        <v>41575</v>
+      </c>
+      <c r="L18" s="23">
+        <v>41598</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="28">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="23">
+        <v>41571</v>
+      </c>
+      <c r="I19" s="23">
+        <v>41571</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23">
+        <v>41575</v>
+      </c>
+      <c r="L19" s="23">
+        <v>41599</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="28">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="7"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="7"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="7"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:O24"/>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="25" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N64"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="26" customWidth="1"/>
     <col min="13" max="13" width="10.375" style="31" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -970,19 +2043,19 @@
         <v>19</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>42</v>
@@ -991,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1009,29 +2082,21 @@
         <v>38</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H2" s="23">
-        <v>41529</v>
+        <v>41570</v>
       </c>
       <c r="I2" s="23">
-        <v>41530</v>
-      </c>
-      <c r="J2" s="23">
-        <v>41530</v>
-      </c>
-      <c r="K2" s="23">
-        <v>41578</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="28">
-        <v>1</v>
-      </c>
+        <v>41570</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1047,29 +2112,21 @@
         <v>37</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H3" s="23">
-        <v>41528</v>
+        <v>41571</v>
       </c>
       <c r="I3" s="23">
-        <v>41529</v>
-      </c>
-      <c r="J3" s="23">
-        <v>41529</v>
-      </c>
-      <c r="K3" s="23">
-        <v>41582</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="28">
-        <v>1</v>
-      </c>
+        <v>41572</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1085,29 +2142,21 @@
         <v>22</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H4" s="23">
-        <v>41528</v>
+        <v>41575</v>
       </c>
       <c r="I4" s="23">
-        <v>41529</v>
-      </c>
-      <c r="J4" s="23">
-        <v>41529</v>
-      </c>
-      <c r="K4" s="23">
-        <v>41592</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="28">
-        <v>0</v>
-      </c>
+        <v>41575</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="28"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1125,29 +2174,21 @@
         <v>26</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="23">
-        <v>41535</v>
+        <v>41576</v>
       </c>
       <c r="I5" s="23">
-        <v>41538</v>
-      </c>
-      <c r="J5" s="23">
-        <v>41538</v>
-      </c>
-      <c r="K5" s="23">
-        <v>41592</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="28">
-        <v>0</v>
-      </c>
+        <v>41576</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1163,29 +2204,21 @@
         <v>23</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" s="23">
-        <v>41531</v>
+        <v>41568</v>
       </c>
       <c r="I6" s="23">
-        <v>41533</v>
-      </c>
-      <c r="J6" s="23">
-        <v>41533</v>
-      </c>
-      <c r="K6" s="23">
-        <v>41578</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="28">
-        <v>0</v>
-      </c>
+        <v>41569</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="28"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1203,29 +2236,21 @@
         <v>24</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" s="23">
-        <v>41541</v>
+        <v>41570</v>
       </c>
       <c r="I7" s="23">
-        <v>41542</v>
-      </c>
-      <c r="J7" s="23">
-        <v>41542</v>
-      </c>
-      <c r="K7" s="23">
-        <v>41592</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="28">
-        <v>0</v>
-      </c>
+        <v>41570</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="28"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -1243,29 +2268,21 @@
         <v>25</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8" s="23">
-        <v>41544</v>
+        <v>41571</v>
       </c>
       <c r="I8" s="23">
-        <v>41547</v>
-      </c>
-      <c r="J8" s="23">
-        <v>41547</v>
-      </c>
-      <c r="K8" s="23">
-        <v>41592</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="28">
-        <v>0</v>
-      </c>
+        <v>41572</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="28"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -1281,29 +2298,21 @@
         <v>20</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H9" s="23">
-        <v>41547</v>
+        <v>41577</v>
       </c>
       <c r="I9" s="23">
-        <v>41548</v>
-      </c>
-      <c r="J9" s="23">
-        <v>41548</v>
-      </c>
-      <c r="K9" s="23">
-        <v>41578</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="29">
-        <v>0</v>
-      </c>
+        <v>41577</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="29"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -1319,36 +2328,28 @@
         <v>21</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" s="23">
-        <v>41549</v>
+        <v>41578</v>
       </c>
       <c r="I10" s="23">
-        <v>41550</v>
-      </c>
-      <c r="J10" s="23">
-        <v>41550</v>
-      </c>
-      <c r="K10" s="23">
         <v>41578</v>
       </c>
-      <c r="L10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="28">
-        <v>0</v>
-      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="28"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="32"/>
       <c r="D11" s="12" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>33</v>
@@ -1357,27 +2358,21 @@
         <v>27</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H11" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="I11" s="23">
-        <v>41570</v>
-      </c>
-      <c r="J11" s="23">
-        <v>41571</v>
-      </c>
-      <c r="K11" s="23">
-        <v>41589</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>71</v>
-      </c>
+        <v>41577</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="28"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -1390,32 +2385,24 @@
         <v>33</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H12" s="23">
-        <v>41568</v>
+        <v>41578</v>
       </c>
       <c r="I12" s="23">
-        <v>41568</v>
-      </c>
-      <c r="J12" s="23">
-        <v>41569</v>
-      </c>
-      <c r="K12" s="23">
-        <v>41576</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="28">
-        <v>0</v>
-      </c>
+        <v>41578</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="27">
+    <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -1430,32 +2417,30 @@
         <v>33</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H13" s="23">
-        <v>41561</v>
+        <v>41572</v>
       </c>
       <c r="I13" s="23">
-        <v>41563</v>
+        <v>41576</v>
       </c>
       <c r="J13" s="23">
-        <v>41565</v>
+        <v>41590</v>
       </c>
       <c r="K13" s="23">
-        <v>41592</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>46</v>
-      </c>
+        <v>41591</v>
+      </c>
+      <c r="L13" s="23"/>
       <c r="M13" s="28">
         <v>0</v>
       </c>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="27">
+    <row r="14" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -1473,29 +2458,27 @@
         <v>29</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H14" s="23">
-        <v>41564</v>
+        <v>41577</v>
       </c>
       <c r="I14" s="23">
-        <v>41565</v>
+        <v>41578</v>
       </c>
       <c r="J14" s="23">
-        <v>41568</v>
+        <v>41591</v>
       </c>
       <c r="K14" s="23">
         <v>41593</v>
       </c>
-      <c r="L14" s="23" t="s">
-        <v>67</v>
-      </c>
+      <c r="L14" s="23"/>
       <c r="M14" s="28">
         <v>0</v>
       </c>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -1504,7 +2487,7 @@
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="17" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>33</v>
@@ -1513,29 +2496,21 @@
         <v>32</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15" s="23">
-        <v>41570</v>
+        <v>41575</v>
       </c>
       <c r="I15" s="23">
-        <v>41570</v>
-      </c>
-      <c r="J15" s="23">
-        <v>41575</v>
-      </c>
-      <c r="K15" s="23">
-        <v>41578</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="28">
-        <v>0</v>
-      </c>
+        <v>41576</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -1544,7 +2519,7 @@
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="17" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>33</v>
@@ -1553,29 +2528,21 @@
         <v>51</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" s="23">
-        <v>41571</v>
+        <v>41577</v>
       </c>
       <c r="I16" s="23">
-        <v>41571</v>
-      </c>
-      <c r="J16" s="23">
-        <v>41575</v>
-      </c>
-      <c r="K16" s="23">
-        <v>41584</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="28">
-        <v>0</v>
-      </c>
+        <v>41578</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -1591,29 +2558,25 @@
         <v>50</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H17" s="23">
-        <v>41558</v>
+        <v>41579</v>
       </c>
       <c r="I17" s="23">
-        <v>41558</v>
+        <v>41579</v>
       </c>
       <c r="J17" s="23">
-        <v>41563</v>
+        <v>41596</v>
       </c>
       <c r="K17" s="23">
-        <v>41576</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="28">
-        <v>0</v>
-      </c>
+        <v>41597</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -1629,29 +2592,21 @@
         <v>47</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H18" s="23">
-        <v>41572</v>
+        <v>41579</v>
       </c>
       <c r="I18" s="23">
-        <v>41572</v>
-      </c>
-      <c r="J18" s="23">
-        <v>41575</v>
-      </c>
-      <c r="K18" s="23">
-        <v>41584</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="28">
-        <v>0</v>
-      </c>
+        <v>41579</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -1667,29 +2622,25 @@
         <v>53</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H19" s="23">
-        <v>41571</v>
+        <v>41579</v>
       </c>
       <c r="I19" s="23">
-        <v>41571</v>
+        <v>41579</v>
       </c>
       <c r="J19" s="23">
-        <v>41575</v>
+        <v>41593</v>
       </c>
       <c r="K19" s="23">
         <v>41593</v>
       </c>
-      <c r="L19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="28">
-        <v>0</v>
-      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="28"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1705,7 +2656,7 @@
       <c r="M20" s="28"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1721,7 +2672,7 @@
       <c r="M21" s="28"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1737,7 +2688,7 @@
       <c r="M22" s="30"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1753,7 +2704,7 @@
       <c r="M23" s="28"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1769,1059 +2720,181 @@
       <c r="M24" s="28"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="3:5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="3:5">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="3:5">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="3:5">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="3:5">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="3:5">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="3:5">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="3:5">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="3:5">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="3:5">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="3:5">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="3:5">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="3:5">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="3:5">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="3:5">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="3:5">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="3:5">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:N24"/>
-  <mergeCells count="1">
-    <mergeCell ref="C2:C19"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="25" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M64"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="26" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="23">
-        <v>41570</v>
-      </c>
-      <c r="I2" s="23">
-        <v>41570</v>
-      </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="23">
-        <v>41571</v>
-      </c>
-      <c r="I3" s="23">
-        <v>41572</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="23">
-        <v>41575</v>
-      </c>
-      <c r="I4" s="23">
-        <v>41575</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18">
-        <v>3</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="23">
-        <v>41576</v>
-      </c>
-      <c r="I5" s="23">
-        <v>41576</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="23">
-        <v>41568</v>
-      </c>
-      <c r="I6" s="23">
-        <v>41569</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="23">
-        <v>41570</v>
-      </c>
-      <c r="I7" s="23">
-        <v>41570</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18">
-        <v>3</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="23">
-        <v>41571</v>
-      </c>
-      <c r="I8" s="23">
-        <v>41572</v>
-      </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="23">
-        <v>41577</v>
-      </c>
-      <c r="I9" s="23">
-        <v>41577</v>
-      </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="23">
-        <v>41578</v>
-      </c>
-      <c r="I10" s="23">
-        <v>41578</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="23">
-        <v>41575</v>
-      </c>
-      <c r="I11" s="23">
-        <v>41577</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="23">
-        <v>41578</v>
-      </c>
-      <c r="I12" s="23">
-        <v>41578</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="27">
-      <c r="A13" s="18">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18">
-        <v>7</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="23">
-        <v>41572</v>
-      </c>
-      <c r="I13" s="23">
-        <v>41576</v>
-      </c>
-      <c r="J13" s="23">
-        <v>41591</v>
-      </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="28">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="27">
-      <c r="A14" s="18">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18">
-        <v>6</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="23">
-        <v>41577</v>
-      </c>
-      <c r="I14" s="23">
-        <v>41578</v>
-      </c>
-      <c r="J14" s="23">
-        <v>41593</v>
-      </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="28">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="27">
-      <c r="A15" s="18">
-        <v>14</v>
-      </c>
-      <c r="B15" s="18">
-        <v>5</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="23">
-        <v>41575</v>
-      </c>
-      <c r="I15" s="23">
-        <v>41576</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="27">
-      <c r="A16" s="18">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18">
-        <v>2</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="23">
-        <v>41577</v>
-      </c>
-      <c r="I16" s="23">
-        <v>41578</v>
-      </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="18">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="23">
-        <v>41579</v>
-      </c>
-      <c r="I17" s="23">
-        <v>41579</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="23">
-        <v>41579</v>
-      </c>
-      <c r="I18" s="23">
-        <v>41579</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="18">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="23">
-        <v>41579</v>
-      </c>
-      <c r="I19" s="23">
-        <v>41579</v>
-      </c>
-      <c r="J19" s="23">
-        <v>41593</v>
-      </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="7"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="7"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="3:5">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="3:5">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="3:5">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="3:5">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="3:5">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="3:5">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="3:5">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="3:5">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="3:5">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="3:5">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="3:5">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="3:5">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="3:5">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" spans="3:5">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="3:5">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="3:5">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="8"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="C1:M24"/>
   <mergeCells count="1">
     <mergeCell ref="C2:C19"/>
   </mergeCells>
